--- a/SCF/files/批量导入客户.xlsx
+++ b/SCF/files/批量导入客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>模板说明：所有字段均不允许为空，请确保所填写信息准确性。所属核心企业当所属客户类型为核心子公司时必填。</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>所属核心企业</t>
-  </si>
-  <si>
-    <t>供应商</t>
   </si>
 </sst>
 </file>
@@ -991,13 +988,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66363636363636" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.66363636363636" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.2181818181818" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.1090909090909" style="1" customWidth="1"/>
@@ -1040,37 +1037,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <f ca="1">CONCATENATE("企业名称",INT(RAND()*10^6))</f>
-        <v>企业名称373288</v>
-      </c>
-      <c r="C3" t="str">
-        <f ca="1">CONCATENATE(RANDBETWEEN(1,9),INT(RAND()*10^9))</f>
-        <v>8560489637</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">CONCATENATE(MID("赵钱孙李周吴郑王冯陈褚卫",RANDBETWEEN(1,12),1),CHAR((INT(16+RAND()*38+160)*256)+INT(94*RAND())+160),CHAR((INT(16+RAND()*38+160)*256)+INT(94*RAND())+160))</f>
-        <v>褚绸疤</v>
-      </c>
-      <c r="E3" t="str">
-        <f ca="1">CONCATENATE(13,INT(RAND()*10^9))</f>
-        <v>13656812257</v>
-      </c>
-      <c r="F3" t="str">
-        <f ca="1">CONCATENATE(CHAR(RAND()*26+97),CHAR(RAND()*26+97),INT(RAND()*10^RANDBETWEEN(1,9)),"@example.com")</f>
-        <v>ll44579@example.com</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G4:G55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G3:G54">
       <formula1>"核心企业,核企子公司,供应商,经销商,保理商,银行,担保方,律所,会所,券商,平台方"</formula1>
     </dataValidation>
   </dataValidations>
